--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_이 vs 히.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_이 vs 히.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,14 +1376,1164 @@
           <t>이: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20230320</t>
-        </is>
+      <c r="D38" t="n">
+        <v>20230320</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>10시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>틈틈이</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>섭섭히</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>솔직히</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>히: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>곰곰이</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>섭섭히</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>당당히</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>16시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>곰곰이</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>섭섭히</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>틈틈이</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>16시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>도저히</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>히: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>16시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>16시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>섭섭히</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>16시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>16시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>정확히</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>히: '히'로만 나는 것의 사례</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>16시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>번번이</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>이: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>16시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>16시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>당당히</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>딱히</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>16시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>솔직히</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>히: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>16시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>16시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>도저히</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>히: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>16시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>당당히</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>16시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>번번이</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>이: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>16시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>곰곰이</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>16시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>솔직히</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>히: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>16시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>당당히</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>16시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>번번이</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>이: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>16시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>틈틈이</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>16시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>솔직히</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>히: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>16시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>16시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>헛되이</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>이: 부사의 끝음절이 분명히 '-이'로만 발음 나는 경우</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>16시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>곰곰이</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>16시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>샅샅이</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>이: 명사 뒤에 '-이'가 붙어서 된 말은 그 명사의 원형을 밝히어 적는다는 규정에 따라 '샅샅이'로 적는다</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>16시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>16시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>따뜻이</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>이: 'ㅅ'받침 뒤의 부사화 접사가 분명히 '이'로 소리 나는 경우</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>곰곰이</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>틈틈이</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>도저히</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>히: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>16시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>깨끗이</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>이: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>16시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>딱히</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>16시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>16시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>번번이</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>히</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>이: 한글 맞춤법 제51항: 부사의 끝음절이 분명히 '이'로만 나는 것은 '-이'로 적고, '히'로만 나거사 '이'나 '히'로 나는 것은 '히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>16시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>섭섭히</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>16시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>당당히</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>이</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>히: '이'나 '히'로 나는 것은 '-히'로 적는다</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>20230327</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>16시 41분</t>
         </is>
       </c>
     </row>
